--- a/Pao管理.xlsx
+++ b/Pao管理.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -623,7 +623,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="3" t="n">
+      <c r="A12" s="2" t="n">
         <v>45396</v>
       </c>
       <c r="B12" t="inlineStr">
@@ -638,6 +638,24 @@
       </c>
       <c r="D12" t="n">
         <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="n">
+        <v>44562</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Sat</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>28g</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
